--- a/data/trans_dic/iP30KDA7_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDA7_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>79,13%</t>
+          <t>91,39%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>81,01%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>80,23%</t>
+          <t>88,13%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,88; 100,0</t>
+          <t>85,96; 95,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60,42; 93,86</t>
+          <t>70,18; 92,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,58; 91,39</t>
+          <t>81,27; 92,32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>87,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>89,86%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,26; 94,64</t>
+          <t>89,21; 95,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,04; 96,55</t>
+          <t>79,73; 91,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,38; 94,22</t>
+          <t>85,58; 92,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>84,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>79,07%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,19; 92,29</t>
+          <t>44,4; 87,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,57; 95,65</t>
+          <t>77,27; 90,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,32; 92,91</t>
+          <t>60,37; 87,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>91,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>81,83%</t>
+          <t>89,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>83,29%</t>
+          <t>90,75%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>77,15; 90,2</t>
+          <t>87,32; 94,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,63; 88,26</t>
+          <t>85,01; 93,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,88; 87,77</t>
+          <t>87,56; 93,32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>89,94%</t>
+          <t>86,79%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>87,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>86,9%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85,35; 93,49</t>
+          <t>73,0; 91,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,38; 94,7</t>
+          <t>83,57; 89,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,87; 93,46</t>
+          <t>80,9; 89,43</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>87,81%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>89,55%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>88,63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>84,76; 90,22</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>85,3; 91,78</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>85,91; 90,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
